--- a/output/LOWVOL/rebalance/rebalance_20241231.xlsx
+++ b/output/LOWVOL/rebalance/rebalance_20241231.xlsx
@@ -588,7 +588,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>56.16%</t>
+          <t>13.60%</t>
         </is>
       </c>
     </row>
@@ -6240,7 +6240,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6282,13 +6282,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02225555232681112</v>
+        <v>0.03136333956602575</v>
       </c>
       <c r="C2" t="n">
         <v>0.03141605339581198</v>
       </c>
       <c r="D2" t="n">
-        <v>0.009160501069000855</v>
+        <v>5.271382978622868e-05</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -6303,17 +6303,17 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01824974477015368</v>
+        <v>0.03087955829858987</v>
       </c>
       <c r="C3" t="n">
         <v>0.03046028920352084</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01221054443336717</v>
+        <v>-0.0004192690950690255</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>增加</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -6324,17 +6324,17 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02235088390354284</v>
+        <v>0.03178890091129977</v>
       </c>
       <c r="C4" t="n">
         <v>0.03000506030736674</v>
       </c>
       <c r="D4" t="n">
-        <v>0.007654176403823907</v>
+        <v>-0.001783840603933023</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>增加</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -6345,13 +6345,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01992634362011029</v>
+        <v>0.02476921545870595</v>
       </c>
       <c r="C5" t="n">
         <v>0.02658372740043756</v>
       </c>
       <c r="D5" t="n">
-        <v>0.006657383780327271</v>
+        <v>0.001814511941731604</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -6366,17 +6366,17 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02314168851155982</v>
+        <v>0.02886851744434153</v>
       </c>
       <c r="C6" t="n">
         <v>0.02622879838570452</v>
       </c>
       <c r="D6" t="n">
-        <v>0.003087109874144699</v>
+        <v>-0.002639719058637011</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>增加</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -6387,13 +6387,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01930294442550413</v>
+        <v>0.02518942104514292</v>
       </c>
       <c r="C7" t="n">
         <v>0.02560595463197043</v>
       </c>
       <c r="D7" t="n">
-        <v>0.006303010206466307</v>
+        <v>0.0004165335868275173</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -6408,13 +6408,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01938983269825983</v>
+        <v>0.02237626091137748</v>
       </c>
       <c r="C8" t="n">
         <v>0.02413562267993637</v>
       </c>
       <c r="D8" t="n">
-        <v>0.004745789981676542</v>
+        <v>0.001759361768558898</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -6429,17 +6429,17 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01752179074300436</v>
+        <v>0.02608068921649119</v>
       </c>
       <c r="C9" t="n">
         <v>0.02275150363186622</v>
       </c>
       <c r="D9" t="n">
-        <v>0.005229712888861864</v>
+        <v>-0.003329185584624972</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>增加</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -6450,17 +6450,17 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>0.02252486106553824</v>
       </c>
       <c r="C10" t="n">
         <v>0.02267237676409504</v>
       </c>
       <c r="D10" t="n">
-        <v>0.02267237676409504</v>
+        <v>0.0001475156985568001</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -6471,17 +6471,17 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>0.02374541215035657</v>
       </c>
       <c r="C11" t="n">
         <v>0.02257248803586293</v>
       </c>
       <c r="D11" t="n">
-        <v>0.02257248803586293</v>
+        <v>-0.001172924114493646</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -6492,17 +6492,17 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01571526853072228</v>
+        <v>0.02404671116991373</v>
       </c>
       <c r="C12" t="n">
         <v>0.02240274966462148</v>
       </c>
       <c r="D12" t="n">
-        <v>0.006687481133899203</v>
+        <v>-0.001643961505292248</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>增加</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -6534,17 +6534,17 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>0.02254168420708132</v>
       </c>
       <c r="C14" t="n">
         <v>0.02224605968877873</v>
       </c>
       <c r="D14" t="n">
-        <v>0.02224605968877873</v>
+        <v>-0.0002956245183025896</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -6555,13 +6555,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01452084030262992</v>
+        <v>0.02010475494200066</v>
       </c>
       <c r="C15" t="n">
         <v>0.02132336022914797</v>
       </c>
       <c r="D15" t="n">
-        <v>0.006802519926518051</v>
+        <v>0.00121860528714731</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -6576,13 +6576,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.02390145162874787</v>
+        <v>0.02275207701657223</v>
       </c>
       <c r="C16" t="n">
         <v>0.02106275274889423</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.002838698879853638</v>
+        <v>-0.001689324267677997</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.02289245772308902</v>
+        <v>0.0216392823022169</v>
       </c>
       <c r="C17" t="n">
         <v>0.02067299573223127</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.002219461990857749</v>
+        <v>-0.0009662865699856284</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -6618,13 +6618,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.02408732138975018</v>
+        <v>0.02279312792173041</v>
       </c>
       <c r="C18" t="n">
         <v>0.02054506138697781</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.003542260002772364</v>
+        <v>-0.002248066534752596</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -6639,17 +6639,17 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.0202837329847999</v>
+        <v>0.0223843603023303</v>
       </c>
       <c r="C19" t="n">
         <v>0.02054078944726869</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0002570564624687875</v>
+        <v>-0.001843570855061604</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>增加</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -6660,17 +6660,17 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>0.02085535116611961</v>
       </c>
       <c r="C20" t="n">
         <v>0.02047160657380729</v>
       </c>
       <c r="D20" t="n">
-        <v>0.02047160657380729</v>
+        <v>-0.0003837445923123191</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -6681,17 +6681,17 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>0.02173375476567105</v>
       </c>
       <c r="C21" t="n">
         <v>0.02012497548225358</v>
       </c>
       <c r="D21" t="n">
-        <v>0.02012497548225358</v>
+        <v>-0.001608779283417475</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -6702,17 +6702,17 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>0.02172167964511914</v>
       </c>
       <c r="C22" t="n">
         <v>0.0200948778894927</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0200948778894927</v>
+        <v>-0.001626801755626437</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -6723,17 +6723,17 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.01536019236464876</v>
+        <v>0.02201147980391464</v>
       </c>
       <c r="C23" t="n">
         <v>0.01931418756717968</v>
       </c>
       <c r="D23" t="n">
-        <v>0.003953995202530924</v>
+        <v>-0.002697292236734962</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>增加</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -6744,17 +6744,17 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>0.0203309735212069</v>
       </c>
       <c r="C24" t="n">
         <v>0.01925076799350031</v>
       </c>
       <c r="D24" t="n">
-        <v>0.01925076799350031</v>
+        <v>-0.001080205527706594</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -6765,17 +6765,17 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>0.01686436199687258</v>
       </c>
       <c r="C25" t="n">
         <v>0.01914235070225357</v>
       </c>
       <c r="D25" t="n">
-        <v>0.01914235070225357</v>
+        <v>0.002277988705380995</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -6786,17 +6786,17 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>0.01888100761975797</v>
       </c>
       <c r="C26" t="n">
         <v>0.01903585765570005</v>
       </c>
       <c r="D26" t="n">
-        <v>0.01903585765570005</v>
+        <v>0.0001548500359420772</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -6807,13 +6807,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.01751482723493436</v>
+        <v>0.01731793777652599</v>
       </c>
       <c r="C27" t="n">
         <v>0.01893313440551282</v>
       </c>
       <c r="D27" t="n">
-        <v>0.001418307170578458</v>
+        <v>0.001615196628986824</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -6828,17 +6828,17 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>0.01834360570576284</v>
       </c>
       <c r="C28" t="n">
         <v>0.01875162684376667</v>
       </c>
       <c r="D28" t="n">
-        <v>0.01875162684376667</v>
+        <v>0.0004080211380038321</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -6849,17 +6849,17 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>0.01646604385005262</v>
       </c>
       <c r="C29" t="n">
         <v>0.01869324215276489</v>
       </c>
       <c r="D29" t="n">
-        <v>0.01869324215276489</v>
+        <v>0.002227198302712272</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -6870,17 +6870,17 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>0.01859204651517019</v>
       </c>
       <c r="C30" t="n">
         <v>0.01835411517589616</v>
       </c>
       <c r="D30" t="n">
-        <v>0.01835411517589616</v>
+        <v>-0.0002379313392740293</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -6891,13 +6891,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.01782479749434934</v>
+        <v>0.01601659435446919</v>
       </c>
       <c r="C31" t="n">
         <v>0.01824179916112579</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0004170016667764502</v>
+        <v>0.002225204806656604</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -6912,17 +6912,17 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>0.01953034712564011</v>
       </c>
       <c r="C32" t="n">
         <v>0.01817077297751569</v>
       </c>
       <c r="D32" t="n">
-        <v>0.01817077297751569</v>
+        <v>-0.001359574148124418</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -6933,13 +6933,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.02173644587070588</v>
+        <v>0.02063212578785372</v>
       </c>
       <c r="C33" t="n">
         <v>0.01810414287079015</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.003632302999915731</v>
+        <v>-0.002527982917063572</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -6954,17 +6954,17 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>0.01626817180522564</v>
       </c>
       <c r="C34" t="n">
         <v>0.01793610780498294</v>
       </c>
       <c r="D34" t="n">
-        <v>0.01793610780498294</v>
+        <v>0.001667935999757293</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -6975,13 +6975,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.01042971823987443</v>
+        <v>0.01340643652606659</v>
       </c>
       <c r="C35" t="n">
         <v>0.01752813349738622</v>
       </c>
       <c r="D35" t="n">
-        <v>0.007098415257511792</v>
+        <v>0.004121696971319628</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -6996,13 +6996,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.01285339171915022</v>
+        <v>0.01486712418185996</v>
       </c>
       <c r="C36" t="n">
         <v>0.01741084788225309</v>
       </c>
       <c r="D36" t="n">
-        <v>0.004557456163102866</v>
+        <v>0.002543723700393123</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -7017,17 +7017,17 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>0.01634792821298063</v>
       </c>
       <c r="C37" t="n">
         <v>0.0173230143238685</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0173230143238685</v>
+        <v>0.0009750861108878614</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -7038,17 +7038,17 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>0.01848508366787594</v>
       </c>
       <c r="C38" t="n">
         <v>0.01727485926828937</v>
       </c>
       <c r="D38" t="n">
-        <v>0.01727485926828937</v>
+        <v>-0.001210224399586568</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -7059,17 +7059,17 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>0.01949377847978635</v>
       </c>
       <c r="C39" t="n">
         <v>0.01700026753617694</v>
       </c>
       <c r="D39" t="n">
-        <v>0.01700026753617694</v>
+        <v>-0.002493510943609414</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -7080,17 +7080,17 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>0.0175915895807541</v>
       </c>
       <c r="C40" t="n">
         <v>0.01691512437802537</v>
       </c>
       <c r="D40" t="n">
-        <v>0.01691512437802537</v>
+        <v>-0.0006764652027287307</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -7101,13 +7101,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.01124661233561708</v>
+        <v>0.01239678634299266</v>
       </c>
       <c r="C41" t="n">
         <v>0.01681577770459527</v>
       </c>
       <c r="D41" t="n">
-        <v>0.005569165368978196</v>
+        <v>0.004418991361602615</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -7122,17 +7122,17 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>0.0176941404960666</v>
       </c>
       <c r="C42" t="n">
         <v>0.0168004872560265</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0168004872560265</v>
+        <v>-0.0008936532400400966</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -7143,13 +7143,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.01174385825487071</v>
+        <v>0.01233023722430252</v>
       </c>
       <c r="C43" t="n">
         <v>0.01662248779225521</v>
       </c>
       <c r="D43" t="n">
-        <v>0.004878629537384499</v>
+        <v>0.004292250567952686</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -7164,13 +7164,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.02924646195435588</v>
+        <v>0.01844867143013527</v>
       </c>
       <c r="C44" t="n">
         <v>0.0164305758781053</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.01281588607625058</v>
+        <v>-0.002018095552029975</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -7185,17 +7185,17 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>0.01829557459816306</v>
       </c>
       <c r="C45" t="n">
         <v>0.01631340008011932</v>
       </c>
       <c r="D45" t="n">
-        <v>0.01631340008011932</v>
+        <v>-0.001982174518043736</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>新增</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -7206,17 +7206,17 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.0244622339918323</v>
+        <v>0.01406616061860266</v>
       </c>
       <c r="C46" t="n">
         <v>0.01608427814619901</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.008377955845633289</v>
+        <v>0.002018117527596348</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>減少</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -7269,17 +7269,17 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.0384993479990207</v>
+        <v>0</v>
       </c>
       <c r="C49" t="n">
         <v>0.01584022051932418</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.02265912747969653</v>
+        <v>0.01584022051932418</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>減少</t>
+          <t>新增</t>
         </is>
       </c>
     </row>
@@ -7328,17 +7328,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2354</t>
+          <t>2474</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.02636898831099639</v>
+        <v>0.0144022839974187</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.02636898831099639</v>
+        <v>-0.0144022839974187</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -7349,17 +7349,17 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>1409</t>
+          <t>2337</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.0177201384784382</v>
+        <v>0.0128283627806607</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.0177201384784382</v>
+        <v>-0.0128283627806607</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -7370,17 +7370,17 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>6269</t>
+          <t>6116</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.01529455369664392</v>
+        <v>0.01652097682540935</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.01529455369664392</v>
+        <v>-0.01652097682540935</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -7391,17 +7391,17 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>1402</t>
+          <t>2106</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.01718236875865175</v>
+        <v>0.0191846354297064</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.01718236875865175</v>
+        <v>-0.0191846354297064</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -7412,17 +7412,17 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>6182</t>
+          <t>1402</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.01138154496224966</v>
+        <v>0.01514463785025004</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.01138154496224966</v>
+        <v>-0.01514463785025004</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -7433,418 +7433,19 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>1723</t>
+          <t>1215</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.01355018106983524</v>
+        <v>0.01908193638789151</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.01355018106983524</v>
+        <v>-0.01908193638789151</v>
       </c>
       <c r="E57" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>6770</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>0.01197498837215586</v>
-      </c>
-      <c r="C58" t="n">
-        <v>0</v>
-      </c>
-      <c r="D58" t="n">
-        <v>-0.01197498837215586</v>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>9904</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>0.0212066153348992</v>
-      </c>
-      <c r="C59" t="n">
-        <v>0</v>
-      </c>
-      <c r="D59" t="n">
-        <v>-0.0212066153348992</v>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>1304</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>0.01055000105688166</v>
-      </c>
-      <c r="C60" t="n">
-        <v>0</v>
-      </c>
-      <c r="D60" t="n">
-        <v>-0.01055000105688166</v>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>1440</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>0.02276206066969503</v>
-      </c>
-      <c r="C61" t="n">
-        <v>0</v>
-      </c>
-      <c r="D61" t="n">
-        <v>-0.02276206066969503</v>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>2101</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>0.0216225666043917</v>
-      </c>
-      <c r="C62" t="n">
-        <v>0</v>
-      </c>
-      <c r="D62" t="n">
-        <v>-0.0216225666043917</v>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>1904</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>0.01207967099047768</v>
-      </c>
-      <c r="C63" t="n">
-        <v>0</v>
-      </c>
-      <c r="D63" t="n">
-        <v>-0.01207967099047768</v>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>3714</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>0.01607986822349469</v>
-      </c>
-      <c r="C64" t="n">
-        <v>0</v>
-      </c>
-      <c r="D64" t="n">
-        <v>-0.01607986822349469</v>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>1215</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>0.01620055615447731</v>
-      </c>
-      <c r="C65" t="n">
-        <v>0</v>
-      </c>
-      <c r="D65" t="n">
-        <v>-0.01620055615447731</v>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>2106</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>0.01506997358448462</v>
-      </c>
-      <c r="C66" t="n">
-        <v>0</v>
-      </c>
-      <c r="D66" t="n">
-        <v>-0.01506997358448462</v>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>2227</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>0.007154991514709789</v>
-      </c>
-      <c r="C67" t="n">
-        <v>0</v>
-      </c>
-      <c r="D67" t="n">
-        <v>-0.007154991514709789</v>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>2883</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>0.02733218785772417</v>
-      </c>
-      <c r="C68" t="n">
-        <v>0</v>
-      </c>
-      <c r="D68" t="n">
-        <v>-0.02733218785772417</v>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>2258</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>0.01728946450102125</v>
-      </c>
-      <c r="C69" t="n">
-        <v>0</v>
-      </c>
-      <c r="D69" t="n">
-        <v>-0.01728946450102125</v>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>2867</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>0.04072299596065087</v>
-      </c>
-      <c r="C70" t="n">
-        <v>0</v>
-      </c>
-      <c r="D70" t="n">
-        <v>-0.04072299596065087</v>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>2308</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>0.02599822894486318</v>
-      </c>
-      <c r="C71" t="n">
-        <v>0</v>
-      </c>
-      <c r="D71" t="n">
-        <v>-0.02599822894486318</v>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>2809</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>0.03201979742099536</v>
-      </c>
-      <c r="C72" t="n">
-        <v>0</v>
-      </c>
-      <c r="D72" t="n">
-        <v>-0.03201979742099536</v>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>2317</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>0.03447677599141043</v>
-      </c>
-      <c r="C73" t="n">
-        <v>0</v>
-      </c>
-      <c r="D73" t="n">
-        <v>-0.03447677599141043</v>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>2330</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>0.0381596572822307</v>
-      </c>
-      <c r="C74" t="n">
-        <v>0</v>
-      </c>
-      <c r="D74" t="n">
-        <v>-0.0381596572822307</v>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>2337</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>0.01136631778222016</v>
-      </c>
-      <c r="C75" t="n">
-        <v>0</v>
-      </c>
-      <c r="D75" t="n">
-        <v>-0.01136631778222016</v>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>刪除</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>9945</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>0.02197776545835631</v>
-      </c>
-      <c r="C76" t="n">
-        <v>0</v>
-      </c>
-      <c r="D76" t="n">
-        <v>-0.02197776545835631</v>
-      </c>
-      <c r="E76" t="inlineStr">
         <is>
           <t>刪除</t>
         </is>

--- a/output/LOWVOL/rebalance/rebalance_20241231.xlsx
+++ b/output/LOWVOL/rebalance/rebalance_20241231.xlsx
@@ -6282,13 +6282,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.03136333956602575</v>
+        <v>0.03136313105308909</v>
       </c>
       <c r="C2" t="n">
         <v>0.03141605339581198</v>
       </c>
       <c r="D2" t="n">
-        <v>5.271382978622868e-05</v>
+        <v>5.292234272288865e-05</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -6303,13 +6303,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.03087955829858987</v>
+        <v>0.03087961614877201</v>
       </c>
       <c r="C3" t="n">
         <v>0.03046028920352084</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.0004192690950690255</v>
+        <v>-0.0004193269452511701</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -6324,13 +6324,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03178890091129977</v>
+        <v>0.0317888699020651</v>
       </c>
       <c r="C4" t="n">
         <v>0.03000506030736674</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.001783840603933023</v>
+        <v>-0.001783809594698357</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -6345,13 +6345,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02476921545870595</v>
+        <v>0.02476919129698937</v>
       </c>
       <c r="C5" t="n">
         <v>0.02658372740043756</v>
       </c>
       <c r="D5" t="n">
-        <v>0.001814511941731604</v>
+        <v>0.001814536103448183</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -6366,13 +6366,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02886851744434153</v>
+        <v>0.02886846047595886</v>
       </c>
       <c r="C6" t="n">
         <v>0.02622879838570452</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.002639719058637011</v>
+        <v>-0.00263966209025434</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -6387,13 +6387,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02518942104514292</v>
+        <v>0.02518956056238999</v>
       </c>
       <c r="C7" t="n">
         <v>0.02560595463197043</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0004165335868275173</v>
+        <v>0.0004163940695804495</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -6408,13 +6408,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02237626091137748</v>
+        <v>0.02237623908392495</v>
       </c>
       <c r="C8" t="n">
         <v>0.02413562267993637</v>
       </c>
       <c r="D8" t="n">
-        <v>0.001759361768558898</v>
+        <v>0.001759383596011424</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -6429,13 +6429,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02608068921649119</v>
+        <v>0.02608062187062062</v>
       </c>
       <c r="C9" t="n">
         <v>0.02275150363186622</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.003329185584624972</v>
+        <v>-0.003329118238754394</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -6450,13 +6450,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02252486106553824</v>
+        <v>0.02252488734854375</v>
       </c>
       <c r="C10" t="n">
         <v>0.02267237676409504</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0001475156985568001</v>
+        <v>0.0001474894155512954</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -6471,13 +6471,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02374541215035657</v>
+        <v>0.02374553383813475</v>
       </c>
       <c r="C11" t="n">
         <v>0.02257248803586293</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.001172924114493646</v>
+        <v>-0.001173045802271826</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -6492,13 +6492,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.02404671116991373</v>
+        <v>0.02404665517674926</v>
       </c>
       <c r="C12" t="n">
         <v>0.02240274966462148</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.001643961505292248</v>
+        <v>-0.001643905512127782</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -6534,13 +6534,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.02254168420708132</v>
+        <v>0.02254168675343696</v>
       </c>
       <c r="C14" t="n">
         <v>0.02224605968877873</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.0002956245183025896</v>
+        <v>-0.0002956270646582368</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -6555,13 +6555,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.02010475494200066</v>
+        <v>0.02010475513661196</v>
       </c>
       <c r="C15" t="n">
         <v>0.02132336022914797</v>
       </c>
       <c r="D15" t="n">
-        <v>0.00121860528714731</v>
+        <v>0.001218605092536011</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -6576,13 +6576,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.02275207701657223</v>
+        <v>0.02275218411757312</v>
       </c>
       <c r="C16" t="n">
         <v>0.02106275274889423</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.001689324267677997</v>
+        <v>-0.001689431368678888</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.0216392823022169</v>
+        <v>0.02163920621826986</v>
       </c>
       <c r="C17" t="n">
         <v>0.02067299573223127</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.0009662865699856284</v>
+        <v>-0.0009662104860385899</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -6618,13 +6618,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.02279312792173041</v>
+        <v>0.02279315965777485</v>
       </c>
       <c r="C18" t="n">
         <v>0.02054506138697781</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.002248066534752596</v>
+        <v>-0.002248098270797035</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -6639,13 +6639,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.0223843603023303</v>
+        <v>0.02238435190914935</v>
       </c>
       <c r="C19" t="n">
         <v>0.02054078944726869</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.001843570855061604</v>
+        <v>-0.001843562461880655</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -6660,13 +6660,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.02085535116611961</v>
+        <v>0.02085540172312915</v>
       </c>
       <c r="C20" t="n">
         <v>0.02047160657380729</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.0003837445923123191</v>
+        <v>-0.0003837951493218597</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -6681,13 +6681,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.02173375476567105</v>
+        <v>0.02173373356496634</v>
       </c>
       <c r="C21" t="n">
         <v>0.02012497548225358</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.001608779283417475</v>
+        <v>-0.001608758082712762</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -6702,13 +6702,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.02172167964511914</v>
+        <v>0.02172169112125016</v>
       </c>
       <c r="C22" t="n">
         <v>0.0200948778894927</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.001626801755626437</v>
+        <v>-0.001626813231757465</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -6723,13 +6723,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.02201147980391464</v>
+        <v>0.02201139943163679</v>
       </c>
       <c r="C23" t="n">
         <v>0.01931418756717968</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.002697292236734962</v>
+        <v>-0.002697211864457112</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -6744,13 +6744,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.0203309735212069</v>
+        <v>0.02033097364517475</v>
       </c>
       <c r="C24" t="n">
         <v>0.01925076799350031</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.001080205527706594</v>
+        <v>-0.001080205651674441</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -6765,13 +6765,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.01686436199687258</v>
+        <v>0.01686436049599071</v>
       </c>
       <c r="C25" t="n">
         <v>0.01914235070225357</v>
       </c>
       <c r="D25" t="n">
-        <v>0.002277988705380995</v>
+        <v>0.002277990206262858</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -6786,13 +6786,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.01888100761975797</v>
+        <v>0.01888093402901291</v>
       </c>
       <c r="C26" t="n">
         <v>0.01903585765570005</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0001548500359420772</v>
+        <v>0.0001549236266871375</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -6807,13 +6807,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.01731793777652599</v>
+        <v>0.01731789022978293</v>
       </c>
       <c r="C27" t="n">
         <v>0.01893313440551282</v>
       </c>
       <c r="D27" t="n">
-        <v>0.001615196628986824</v>
+        <v>0.001615244175729884</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -6828,13 +6828,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.01834360570576284</v>
+        <v>0.01834363463501179</v>
       </c>
       <c r="C28" t="n">
         <v>0.01875162684376667</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0004080211380038321</v>
+        <v>0.0004079922087548843</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -6849,13 +6849,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.01646604385005262</v>
+        <v>0.01646601323888195</v>
       </c>
       <c r="C29" t="n">
         <v>0.01869324215276489</v>
       </c>
       <c r="D29" t="n">
-        <v>0.002227198302712272</v>
+        <v>0.002227228913882943</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -6870,13 +6870,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.01859204651517019</v>
+        <v>0.01859214374898983</v>
       </c>
       <c r="C30" t="n">
         <v>0.01835411517589616</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.0002379313392740293</v>
+        <v>-0.0002380285730936745</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -6891,13 +6891,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.01601659435446919</v>
+        <v>0.01601659348630875</v>
       </c>
       <c r="C31" t="n">
         <v>0.01824179916112579</v>
       </c>
       <c r="D31" t="n">
-        <v>0.002225204806656604</v>
+        <v>0.002225205674817043</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -6912,13 +6912,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.01953034712564011</v>
+        <v>0.01953036455780868</v>
       </c>
       <c r="C32" t="n">
         <v>0.01817077297751569</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.001359574148124418</v>
+        <v>-0.001359591580292988</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -6933,13 +6933,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.02063212578785372</v>
+        <v>0.02063222828793541</v>
       </c>
       <c r="C33" t="n">
         <v>0.01810414287079015</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.002527982917063572</v>
+        <v>-0.002528085417145262</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -6954,13 +6954,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.01626817180522564</v>
+        <v>0.01626808228739728</v>
       </c>
       <c r="C34" t="n">
         <v>0.01793610780498294</v>
       </c>
       <c r="D34" t="n">
-        <v>0.001667935999757293</v>
+        <v>0.001668025517585655</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -6975,13 +6975,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.01340643652606659</v>
+        <v>0.01340635015574245</v>
       </c>
       <c r="C35" t="n">
         <v>0.01752813349738622</v>
       </c>
       <c r="D35" t="n">
-        <v>0.004121696971319628</v>
+        <v>0.004121783341643764</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -6996,13 +6996,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.01486712418185996</v>
+        <v>0.01486701107707679</v>
       </c>
       <c r="C36" t="n">
         <v>0.01741084788225309</v>
       </c>
       <c r="D36" t="n">
-        <v>0.002543723700393123</v>
+        <v>0.002543836805176298</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -7017,13 +7017,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.01634792821298063</v>
+        <v>0.01634781365528351</v>
       </c>
       <c r="C37" t="n">
         <v>0.0173230143238685</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0009750861108878614</v>
+        <v>0.000975200668584985</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -7038,13 +7038,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.01848508366787594</v>
+        <v>0.01848503744567451</v>
       </c>
       <c r="C38" t="n">
         <v>0.01727485926828937</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.001210224399586568</v>
+        <v>-0.001210178177385141</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -7059,13 +7059,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.01949377847978635</v>
+        <v>0.0194938190057969</v>
       </c>
       <c r="C39" t="n">
         <v>0.01700026753617694</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.002493510943609414</v>
+        <v>-0.002493551469619961</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -7080,13 +7080,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.0175915895807541</v>
+        <v>0.01759153260063087</v>
       </c>
       <c r="C40" t="n">
         <v>0.01691512437802537</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.0006764652027287307</v>
+        <v>-0.0006764082226054999</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -7101,13 +7101,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.01239678634299266</v>
+        <v>0.01239681072208063</v>
       </c>
       <c r="C41" t="n">
         <v>0.01681577770459527</v>
       </c>
       <c r="D41" t="n">
-        <v>0.004418991361602615</v>
+        <v>0.004418966982514648</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -7122,13 +7122,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.0176941404960666</v>
+        <v>0.01769422378780984</v>
       </c>
       <c r="C42" t="n">
         <v>0.0168004872560265</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.0008936532400400966</v>
+        <v>-0.0008937365317833353</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -7143,13 +7143,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.01233023722430252</v>
+        <v>0.01233022519648123</v>
       </c>
       <c r="C43" t="n">
         <v>0.01662248779225521</v>
       </c>
       <c r="D43" t="n">
-        <v>0.004292250567952686</v>
+        <v>0.00429226259577398</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -7164,13 +7164,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.01844867143013527</v>
+        <v>0.01844874054568352</v>
       </c>
       <c r="C44" t="n">
         <v>0.0164305758781053</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.002018095552029975</v>
+        <v>-0.002018164667578225</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -7185,13 +7185,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.01829557459816306</v>
+        <v>0.01829555675131245</v>
       </c>
       <c r="C45" t="n">
         <v>0.01631340008011932</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.001982174518043736</v>
+        <v>-0.001982156671193124</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -7206,13 +7206,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.01406616061860266</v>
+        <v>0.01406617526785244</v>
       </c>
       <c r="C46" t="n">
         <v>0.01608427814619901</v>
       </c>
       <c r="D46" t="n">
-        <v>0.002018117527596348</v>
+        <v>0.002018102878346572</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -7332,13 +7332,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.0144022839974187</v>
+        <v>0.01440266600802219</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.0144022839974187</v>
+        <v>-0.01440266600802219</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -7353,13 +7353,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.0128283627806607</v>
+        <v>0.01282844513779044</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.0128283627806607</v>
+        <v>-0.01282844513779044</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -7374,13 +7374,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.01652097682540935</v>
+        <v>0.0165210315763493</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.01652097682540935</v>
+        <v>-0.0165210315763493</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -7395,13 +7395,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.0191846354297064</v>
+        <v>0.01918463475932206</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.0191846354297064</v>
+        <v>-0.01918463475932206</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -7416,13 +7416,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.01514463785025004</v>
+        <v>0.01514445349979382</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.01514463785025004</v>
+        <v>-0.01514445349979382</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -7437,13 +7437,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.01908193638789151</v>
+        <v>0.01908191777396572</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.01908193638789151</v>
+        <v>-0.01908191777396572</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>

--- a/output/LOWVOL/rebalance/rebalance_20241231.xlsx
+++ b/output/LOWVOL/rebalance/rebalance_20241231.xlsx
@@ -588,7 +588,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>13.60%</t>
+          <t>13.58%</t>
         </is>
       </c>
     </row>
@@ -6282,13 +6282,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.03136313105308909</v>
+        <v>0.0313815151220468</v>
       </c>
       <c r="C2" t="n">
         <v>0.03141605339581198</v>
       </c>
       <c r="D2" t="n">
-        <v>5.292234272288865e-05</v>
+        <v>3.453827376517782e-05</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -6303,13 +6303,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.03087961614877201</v>
+        <v>0.03089745349564248</v>
       </c>
       <c r="C3" t="n">
         <v>0.03046028920352084</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.0004193269452511701</v>
+        <v>-0.0004371642921216327</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -6324,13 +6324,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0317888699020651</v>
+        <v>0.03180732308691487</v>
       </c>
       <c r="C4" t="n">
         <v>0.03000506030736674</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.001783809594698357</v>
+        <v>-0.001802262779548126</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -6345,13 +6345,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02476919129698937</v>
+        <v>0.02478356961452599</v>
       </c>
       <c r="C5" t="n">
         <v>0.02658372740043756</v>
       </c>
       <c r="D5" t="n">
-        <v>0.001814536103448183</v>
+        <v>0.001800157785911562</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -6366,13 +6366,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02886846047595886</v>
+        <v>0.0288852472111111</v>
       </c>
       <c r="C6" t="n">
         <v>0.02622879838570452</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.00263966209025434</v>
+        <v>-0.002656448825406586</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -6387,13 +6387,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02518956056238999</v>
+        <v>0.02520401871680924</v>
       </c>
       <c r="C7" t="n">
         <v>0.02560595463197043</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0004163940695804495</v>
+        <v>0.0004019359151611994</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -6408,13 +6408,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02237623908392495</v>
+        <v>0.02238922831183176</v>
       </c>
       <c r="C8" t="n">
         <v>0.02413562267993637</v>
       </c>
       <c r="D8" t="n">
-        <v>0.001759383596011424</v>
+        <v>0.001746394368104611</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -6429,13 +6429,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02608062187062062</v>
+        <v>0.02609580339229265</v>
       </c>
       <c r="C9" t="n">
         <v>0.02275150363186622</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.003329118238754394</v>
+        <v>-0.003344299760426432</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -6450,13 +6450,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02252488734854375</v>
+        <v>0.0225379145821544</v>
       </c>
       <c r="C10" t="n">
         <v>0.02267237676409504</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0001474894155512954</v>
+        <v>0.0001344621819406415</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -6471,13 +6471,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02374553383813475</v>
+        <v>0.02375917299581352</v>
       </c>
       <c r="C11" t="n">
         <v>0.02257248803586293</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.001173045802271826</v>
+        <v>-0.001186684959950595</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -6492,13 +6492,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.02404665517674926</v>
+        <v>0.02406064662296301</v>
       </c>
       <c r="C12" t="n">
         <v>0.02240274966462148</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.001643905512127782</v>
+        <v>-0.00165789695834153</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -6534,13 +6534,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.02254168675343696</v>
+        <v>0.02255474747297659</v>
       </c>
       <c r="C14" t="n">
         <v>0.02224605968877873</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.0002956270646582368</v>
+        <v>-0.0003086877841978614</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -6555,13 +6555,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.02010475513661196</v>
+        <v>0.02011640596847917</v>
       </c>
       <c r="C15" t="n">
         <v>0.02132336022914797</v>
       </c>
       <c r="D15" t="n">
-        <v>0.001218605092536011</v>
+        <v>0.001206954260668809</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -6576,13 +6576,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.02275218411757312</v>
+        <v>0.0227652622084597</v>
       </c>
       <c r="C16" t="n">
         <v>0.02106275274889423</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.001689431368678888</v>
+        <v>-0.001702509459565467</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.02163920621826986</v>
+        <v>0.02165182261180068</v>
       </c>
       <c r="C17" t="n">
         <v>0.02067299573223127</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.0009662104860385899</v>
+        <v>-0.0009788268795694124</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -6618,13 +6618,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.02279315965777485</v>
+        <v>0.02280633690327282</v>
       </c>
       <c r="C18" t="n">
         <v>0.02054506138697781</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.002248098270797035</v>
+        <v>-0.00226127551629501</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -6639,13 +6639,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.02238435190914935</v>
+        <v>0.02239733239651096</v>
       </c>
       <c r="C19" t="n">
         <v>0.02054078944726869</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.001843562461880655</v>
+        <v>-0.001856542949242271</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -6660,13 +6660,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.02085540172312915</v>
+        <v>0.02086743717509391</v>
       </c>
       <c r="C20" t="n">
         <v>0.02047160657380729</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.0003837951493218597</v>
+        <v>-0.0003958306012866175</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -6681,13 +6681,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.02173373356496634</v>
+        <v>0.02174634982355574</v>
       </c>
       <c r="C21" t="n">
         <v>0.02012497548225358</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.001608758082712762</v>
+        <v>-0.001621374341302162</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -6702,13 +6702,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.02172169112125016</v>
+        <v>0.02173426770527868</v>
       </c>
       <c r="C22" t="n">
         <v>0.0200948778894927</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.001626813231757465</v>
+        <v>-0.001639389815785985</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -6723,13 +6723,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.02201139943163679</v>
+        <v>0.0220242358078931</v>
       </c>
       <c r="C23" t="n">
         <v>0.01931418756717968</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.002697211864457112</v>
+        <v>-0.002710048240713414</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -6744,13 +6744,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.02033097364517475</v>
+        <v>0.02034275564496381</v>
       </c>
       <c r="C24" t="n">
         <v>0.01925076799350031</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.001080205651674441</v>
+        <v>-0.001091987651463504</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -6765,13 +6765,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.01686436049599071</v>
+        <v>0.01687413516390373</v>
       </c>
       <c r="C25" t="n">
         <v>0.01914235070225357</v>
       </c>
       <c r="D25" t="n">
-        <v>0.002277990206262858</v>
+        <v>0.002268215538349841</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -6786,13 +6786,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.01888093402901291</v>
+        <v>0.01889194946512507</v>
       </c>
       <c r="C26" t="n">
         <v>0.01903585765570005</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0001549236266871375</v>
+        <v>0.000143908190574981</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -6807,13 +6807,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.01731789022978293</v>
+        <v>0.01732797379796317</v>
       </c>
       <c r="C27" t="n">
         <v>0.01893313440551282</v>
       </c>
       <c r="D27" t="n">
-        <v>0.001615244175729884</v>
+        <v>0.001605160607549644</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -6828,13 +6828,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.01834363463501179</v>
+        <v>0.01835423611814069</v>
       </c>
       <c r="C28" t="n">
         <v>0.01875162684376667</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0004079922087548843</v>
+        <v>0.0003973907256259804</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -6849,13 +6849,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.01646601323888195</v>
+        <v>0.01647558618535819</v>
       </c>
       <c r="C29" t="n">
         <v>0.01869324215276489</v>
       </c>
       <c r="D29" t="n">
-        <v>0.002227228913882943</v>
+        <v>0.002217655967406702</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -6870,13 +6870,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.01859214374898983</v>
+        <v>0.01860282090296365</v>
       </c>
       <c r="C30" t="n">
         <v>0.01835411517589616</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.0002380285730936745</v>
+        <v>-0.0002487057270674983</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -6891,13 +6891,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.01601659348630875</v>
+        <v>0.01602587622661623</v>
       </c>
       <c r="C31" t="n">
         <v>0.01824179916112579</v>
       </c>
       <c r="D31" t="n">
-        <v>0.002225205674817043</v>
+        <v>0.002215922934509562</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -6912,13 +6912,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.01953036455780868</v>
+        <v>0.01954166527361811</v>
       </c>
       <c r="C32" t="n">
         <v>0.01817077297751569</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.001359591580292988</v>
+        <v>-0.001370892296102422</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -6933,13 +6933,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.02063222828793541</v>
+        <v>0.02064408243415732</v>
       </c>
       <c r="C33" t="n">
         <v>0.01810414287079015</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.002528085417145262</v>
+        <v>-0.00253993956336717</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -6954,13 +6954,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.01626808228739728</v>
+        <v>0.01627759947052206</v>
       </c>
       <c r="C34" t="n">
         <v>0.01793610780498294</v>
       </c>
       <c r="D34" t="n">
-        <v>0.001668025517585655</v>
+        <v>0.001658508334460879</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -6975,13 +6975,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.01340635015574245</v>
+        <v>0.01341420577007868</v>
       </c>
       <c r="C35" t="n">
         <v>0.01752813349738622</v>
       </c>
       <c r="D35" t="n">
-        <v>0.004121783341643764</v>
+        <v>0.00411392772730754</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -6996,13 +6996,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.01486701107707679</v>
+        <v>0.0148757399176897</v>
       </c>
       <c r="C36" t="n">
         <v>0.01741084788225309</v>
       </c>
       <c r="D36" t="n">
-        <v>0.002543836805176298</v>
+        <v>0.002535107964563387</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -7017,13 +7017,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.01634781365528351</v>
+        <v>0.01635740209838872</v>
       </c>
       <c r="C37" t="n">
         <v>0.0173230143238685</v>
       </c>
       <c r="D37" t="n">
-        <v>0.000975200668584985</v>
+        <v>0.0009656122254797783</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -7038,13 +7038,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.01848503744567451</v>
+        <v>0.01849579606899164</v>
       </c>
       <c r="C38" t="n">
         <v>0.01727485926828937</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.001210178177385141</v>
+        <v>-0.001220936800702271</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -7059,13 +7059,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.0194938190057969</v>
+        <v>0.01950507543565025</v>
       </c>
       <c r="C39" t="n">
         <v>0.01700026753617694</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.002493551469619961</v>
+        <v>-0.002504807899473306</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -7080,13 +7080,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.01759153260063087</v>
+        <v>0.01760178418778094</v>
       </c>
       <c r="C40" t="n">
         <v>0.01691512437802537</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.0006764082226054999</v>
+        <v>-0.0006866598097555639</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -7101,13 +7101,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.01239681072208063</v>
+        <v>0.01240397047860372</v>
       </c>
       <c r="C41" t="n">
         <v>0.01681577770459527</v>
       </c>
       <c r="D41" t="n">
-        <v>0.004418966982514648</v>
+        <v>0.004411807225991552</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -7122,13 +7122,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.01769422378780984</v>
+        <v>0.01770439453298616</v>
       </c>
       <c r="C42" t="n">
         <v>0.0168004872560265</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.0008937365317833353</v>
+        <v>-0.0009039072769596555</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -7143,13 +7143,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.01233022519648123</v>
+        <v>0.01233738279363679</v>
       </c>
       <c r="C43" t="n">
         <v>0.01662248779225521</v>
       </c>
       <c r="D43" t="n">
-        <v>0.00429226259577398</v>
+        <v>0.004285104998618419</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -7164,13 +7164,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.01844874054568352</v>
+        <v>0.01845936272977785</v>
       </c>
       <c r="C44" t="n">
         <v>0.0164305758781053</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.002018164667578225</v>
+        <v>-0.002028786851672557</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -7185,13 +7185,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.01829555675131245</v>
+        <v>0.0183061771757472</v>
       </c>
       <c r="C45" t="n">
         <v>0.01631340008011932</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.001982156671193124</v>
+        <v>-0.001992777095627875</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -7206,13 +7206,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.01406617526785244</v>
+        <v>0.01407431218325943</v>
       </c>
       <c r="C46" t="n">
         <v>0.01608427814619901</v>
       </c>
       <c r="D46" t="n">
-        <v>0.002018102878346572</v>
+        <v>0.002009965962939581</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -7332,13 +7332,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.01440266600802219</v>
+        <v>0.0138311143850845</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.01440266600802219</v>
+        <v>-0.0138311143850845</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -7353,13 +7353,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.01282844513779044</v>
+        <v>0.01283579702170788</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.01282844513779044</v>
+        <v>-0.01283579702170788</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -7374,13 +7374,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.0165210315763493</v>
+        <v>0.01653055099525119</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.0165210315763493</v>
+        <v>-0.01653055099525119</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -7395,13 +7395,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.01918463475932206</v>
+        <v>0.01919575323223702</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.01918463475932206</v>
+        <v>-0.01919575323223702</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -7416,13 +7416,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.01514445349979382</v>
+        <v>0.01515341440968136</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.01514445349979382</v>
+        <v>-0.01515341440968136</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -7437,13 +7437,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.01908191777396572</v>
+        <v>0.01909299467468774</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.01908191777396572</v>
+        <v>-0.01909299467468774</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
